--- a/Olah Nilai/4C/Daftar Nilai UAS 4C.xlsx
+++ b/Olah Nilai/4C/Daftar Nilai UAS 4C.xlsx
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="D18" s="23" t="n">
-        <v>85.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="E18" s="44" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="D19" s="23" t="n">
-        <v>91.25</v>
+        <v>83.25</v>
       </c>
       <c r="E19" s="41" t="n"/>
       <c r="F19" s="42" t="n"/>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D26" s="23" t="n">
-        <v>0</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="E26" s="44" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D34" s="23" t="n">
-        <v>92.85000000000001</v>
+        <v>91.25</v>
       </c>
       <c r="E34" s="44" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="D35" s="23" t="n">
-        <v>84.85000000000001</v>
+        <v>87.85000000000001</v>
       </c>
       <c r="E35" s="41" t="n"/>
       <c r="F35" s="42" t="n"/>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>94.25</v>
+        <v>92.85000000000001</v>
       </c>
       <c r="E36" s="44" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>83.25</v>
+        <v>91.25</v>
       </c>
       <c r="E37" s="41" t="n"/>
       <c r="F37" s="42" t="n"/>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>87.85000000000001</v>
+        <v>84.85000000000001</v>
       </c>
       <c r="E38" s="45" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>91.25</v>
+        <v>83.25</v>
       </c>
       <c r="E39" s="41" t="n"/>
       <c r="F39" s="42" t="n"/>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="D40" s="23" t="n">
-        <v>83.25</v>
+        <v>94.25</v>
       </c>
       <c r="E40" s="45" t="inlineStr">
         <is>
